--- a/excel/BG-TP-S6/BG-TP-S6.xlsx
+++ b/excel/BG-TP-S6/BG-TP-S6.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\bulletin-espi\backend\excel\BG-TP-S6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\backendespi\excel\BG-TP-S6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F9EA58-36AF-466B-B58D-04591DC27047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3902C2-97FB-435A-AE9F-C8BFF2E76FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,9 +39,6 @@
     <t>Real Estate English</t>
   </si>
   <si>
-    <t>Code Apprenant</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Retards</t>
+  </si>
+  <si>
+    <t>CodeApprenant</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,46 +686,46 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
